--- a/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D7003B6-AF50-4A46-BE3B-84208D58D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECED87B7-A034-46F2-8AB7-62987DAFF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5DDD7C6B-AB3A-44CA-90E7-2C2E32E3AFDB}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AA14F883-BA37-4FEC-95FC-5930EC739A41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>95,2%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
     <t>6,96%</t>
   </si>
   <si>
@@ -359,6 +359,48 @@
     <t>95,97%</t>
   </si>
   <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
     <t>5,49%</t>
   </si>
   <si>
@@ -413,48 +455,6 @@
     <t>96,17%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
     <t>5,34%</t>
   </si>
   <si>
@@ -560,6 +560,60 @@
     <t>95,08%</t>
   </si>
   <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
     <t>6,05%</t>
   </si>
   <si>
@@ -608,60 +662,6 @@
     <t>95,8%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
     <t>5,89%</t>
   </si>
   <si>
@@ -749,6 +749,54 @@
     <t>92,99%</t>
   </si>
   <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
     <t>4,79%</t>
   </si>
   <si>
@@ -801,54 +849,6 @@
   </si>
   <si>
     <t>95,13%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CE4730-8134-4212-8A7F-8854E99A1D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3551B7-CA68-4AC7-A1D7-CC02B1BC589E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1567,10 +1567,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>14690</v>
+        <v>9092</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1582,10 +1582,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>14221</v>
+        <v>8183</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1597,10 +1597,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>28911</v>
+        <v>17275</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1618,10 +1618,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="D8" s="7">
-        <v>206371</v>
+        <v>183835</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1633,10 +1633,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="I8" s="7">
-        <v>200494</v>
+        <v>170324</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1648,10 +1648,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>607</v>
+        <v>528</v>
       </c>
       <c r="N8" s="7">
-        <v>406864</v>
+        <v>354159</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1669,10 +1669,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="D9" s="7">
-        <v>221061</v>
+        <v>192927</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1684,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="I9" s="7">
-        <v>214715</v>
+        <v>178507</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1699,10 +1699,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>649</v>
+        <v>555</v>
       </c>
       <c r="N9" s="7">
-        <v>435775</v>
+        <v>371434</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1722,10 +1722,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>9092</v>
+        <v>14690</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1737,10 +1737,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>8183</v>
+        <v>14221</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1752,10 +1752,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>17275</v>
+        <v>28911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1773,10 +1773,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>183835</v>
+        <v>206371</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1788,10 +1788,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="I11" s="7">
-        <v>170324</v>
+        <v>200494</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1803,10 +1803,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="N11" s="7">
-        <v>354159</v>
+        <v>406864</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1824,10 +1824,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>192927</v>
+        <v>221061</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1839,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>178507</v>
+        <v>214715</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1854,10 +1854,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>555</v>
+        <v>649</v>
       </c>
       <c r="N12" s="7">
-        <v>371434</v>
+        <v>435775</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2040,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E104B79-C390-4139-B4A4-A72113D7449C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D4A25D-DF99-48A6-8A80-E43D6D037DE4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2313,49 +2313,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>13807</v>
+        <v>12892</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>14</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10145</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="7">
-        <v>17</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11625</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="7">
+        <v>32</v>
+      </c>
+      <c r="N7" s="7">
+        <v>23037</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="7">
-        <v>38</v>
-      </c>
-      <c r="N7" s="7">
-        <v>25432</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2364,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D8" s="7">
-        <v>237635</v>
+        <v>215732</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7">
+        <v>289</v>
+      </c>
+      <c r="I8" s="7">
+        <v>206740</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>586</v>
+      </c>
+      <c r="N8" s="7">
+        <v>422472</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="7">
-        <v>313</v>
-      </c>
-      <c r="I8" s="7">
-        <v>220425</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M8" s="7">
-        <v>662</v>
-      </c>
-      <c r="N8" s="7">
-        <v>458060</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="D9" s="7">
-        <v>251442</v>
+        <v>228624</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2430,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>232050</v>
+        <v>216885</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2445,10 +2445,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>700</v>
+        <v>618</v>
       </c>
       <c r="N9" s="7">
-        <v>483492</v>
+        <v>445509</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2468,49 +2468,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>12892</v>
+        <v>13807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="7">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>11625</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="7">
-        <v>14</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10145</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>38</v>
+      </c>
+      <c r="N10" s="7">
+        <v>25432</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="7">
-        <v>32</v>
-      </c>
-      <c r="N10" s="7">
-        <v>23037</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,40 +2519,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="D11" s="7">
-        <v>215732</v>
+        <v>237635</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>313</v>
+      </c>
+      <c r="I11" s="7">
+        <v>220425</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="H11" s="7">
-        <v>289</v>
-      </c>
-      <c r="I11" s="7">
-        <v>206740</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>586</v>
+        <v>662</v>
       </c>
       <c r="N11" s="7">
-        <v>422472</v>
+        <v>458060</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2570,10 +2570,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>228624</v>
+        <v>251442</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2585,10 +2585,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>216885</v>
+        <v>232050</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2600,10 +2600,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>618</v>
+        <v>700</v>
       </c>
       <c r="N12" s="7">
-        <v>445509</v>
+        <v>483492</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2786,7 +2786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9666C49-6968-4AD4-A2D8-97996A12AB5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2221310-0D8F-44CB-9450-EFAF37FA9133}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3059,49 +3059,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>14805</v>
+        <v>10934</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7">
-        <v>13443</v>
+        <v>12995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>28248</v>
+        <v>23929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,49 +3110,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7">
-        <v>230076</v>
+        <v>213936</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="I8" s="7">
-        <v>227011</v>
+        <v>200538</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="N8" s="7">
-        <v>457087</v>
+        <v>414474</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,10 +3161,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D9" s="7">
-        <v>244881</v>
+        <v>224870</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3176,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7">
-        <v>240454</v>
+        <v>213533</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3191,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="N9" s="7">
-        <v>485335</v>
+        <v>438403</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3214,49 +3214,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>10934</v>
+        <v>14805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>12995</v>
+        <v>13443</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>23929</v>
+        <v>28248</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,25 +3265,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D11" s="7">
-        <v>213936</v>
+        <v>230076</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="I11" s="7">
-        <v>200538</v>
+        <v>227011</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>201</v>
@@ -3295,10 +3295,10 @@
         <v>203</v>
       </c>
       <c r="M11" s="7">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="N11" s="7">
-        <v>414474</v>
+        <v>457087</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>204</v>
@@ -3316,10 +3316,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D12" s="7">
-        <v>224870</v>
+        <v>244881</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3331,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="I12" s="7">
-        <v>213533</v>
+        <v>240454</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3346,10 +3346,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>652</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>438403</v>
+        <v>485335</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3378,10 +3378,10 @@
         <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3408,7 +3408,7 @@
         <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>212</v>
@@ -3429,10 +3429,10 @@
         <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>915</v>
@@ -3462,7 +3462,7 @@
         <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDE2CE2-60E7-4C81-A7B3-6DE8FE7B5B7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA39D56-D580-430A-B584-414E01051877}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3805,49 +3805,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>2905</v>
+        <v>3305</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3782</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H7" s="7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6722</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>11</v>
+      </c>
+      <c r="N7" s="7">
+        <v>7088</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="M7" s="7">
-        <v>12</v>
-      </c>
-      <c r="N7" s="7">
-        <v>9627</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +3856,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D8" s="7">
-        <v>57797</v>
+        <v>34875</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>46</v>
+      </c>
+      <c r="I8" s="7">
+        <v>30954</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H8" s="7">
-        <v>51</v>
-      </c>
-      <c r="I8" s="7">
-        <v>35762</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>94</v>
+      </c>
+      <c r="N8" s="7">
+        <v>65829</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M8" s="7">
-        <v>125</v>
-      </c>
-      <c r="N8" s="7">
-        <v>93559</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>60702</v>
+        <v>38180</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3922,10 +3922,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>42484</v>
+        <v>34736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3937,10 +3937,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="N9" s="7">
-        <v>103186</v>
+        <v>72917</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3960,49 +3960,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3305</v>
+        <v>2905</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6722</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3782</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>9627</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="M10" s="7">
-        <v>11</v>
-      </c>
-      <c r="N10" s="7">
-        <v>7088</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4011,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>34875</v>
+        <v>57797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>262</v>
@@ -4026,10 +4026,10 @@
         <v>263</v>
       </c>
       <c r="H11" s="7">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I11" s="7">
-        <v>30954</v>
+        <v>35762</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>264</v>
@@ -4041,10 +4041,10 @@
         <v>266</v>
       </c>
       <c r="M11" s="7">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="N11" s="7">
-        <v>65829</v>
+        <v>93559</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>267</v>
@@ -4062,10 +4062,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
-        <v>38180</v>
+        <v>60702</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4077,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>34736</v>
+        <v>42484</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4092,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="N12" s="7">
-        <v>72917</v>
+        <v>103186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECED87B7-A034-46F2-8AB7-62987DAFF783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F62810-D468-4E6D-AEC5-657AAA986C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AA14F883-BA37-4FEC-95FC-5930EC739A41}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66AAA08B-23C8-4062-BC2A-8B0DCCB64B45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -68,841 +68,1039 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>6,96%</t>
   </si>
   <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
   </si>
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>15,33%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1111,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1009,39 +1207,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1093,7 +1291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1204,13 +1402,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1219,6 +1410,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1283,19 +1481,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3551B7-CA68-4AC7-A1D7-CC02B1BC589E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6F902-B307-428B-92D6-490EED83BCCA}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1412,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7">
-        <v>18909</v>
+        <v>95593</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1427,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>15490</v>
+        <v>95771</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1442,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="N4" s="7">
-        <v>34399</v>
+        <v>191363</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1463,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>180429</v>
+        <v>11440</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1478,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>274</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>180270</v>
+        <v>4882</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1493,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>545</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7">
-        <v>360698</v>
+        <v>16323</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1514,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="D6" s="7">
-        <v>199338</v>
+        <v>107033</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1529,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>298</v>
+        <v>153</v>
       </c>
       <c r="I6" s="7">
-        <v>195760</v>
+        <v>100653</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1544,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>597</v>
+        <v>314</v>
       </c>
       <c r="N6" s="7">
-        <v>395097</v>
+        <v>207686</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1567,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>14</v>
+        <v>324</v>
       </c>
       <c r="D7" s="7">
-        <v>9092</v>
+        <v>215021</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1582,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
-        <v>8183</v>
+        <v>211401</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1597,10 +1815,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>27</v>
+        <v>639</v>
       </c>
       <c r="N7" s="7">
-        <v>17275</v>
+        <v>426422</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1618,10 +1836,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>183835</v>
+        <v>14527</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1633,10 +1851,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>170324</v>
+        <v>16097</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1648,10 +1866,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>528</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>354159</v>
+        <v>30624</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1669,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>292</v>
+        <v>346</v>
       </c>
       <c r="D9" s="7">
-        <v>192927</v>
+        <v>229548</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1684,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>178507</v>
+        <v>227498</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1699,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>555</v>
+        <v>686</v>
       </c>
       <c r="N9" s="7">
-        <v>371434</v>
+        <v>457046</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1722,10 +1940,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D10" s="7">
-        <v>14690</v>
+        <v>106425</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1737,10 +1955,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I10" s="7">
-        <v>14221</v>
+        <v>96623</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1752,10 +1970,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="N10" s="7">
-        <v>28911</v>
+        <v>203047</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1773,10 +1991,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>206371</v>
+        <v>6417</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1788,10 +2006,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>296</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>200494</v>
+        <v>6851</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1803,10 +2021,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>607</v>
+        <v>20</v>
       </c>
       <c r="N11" s="7">
-        <v>406864</v>
+        <v>13268</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1824,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7">
-        <v>221061</v>
+        <v>112842</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1839,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>154</v>
       </c>
       <c r="I12" s="7">
-        <v>214715</v>
+        <v>103474</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1854,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>649</v>
+        <v>323</v>
       </c>
       <c r="N12" s="7">
-        <v>435775</v>
+        <v>216315</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1871,55 +2089,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>232</v>
       </c>
       <c r="D13" s="7">
-        <v>42691</v>
+        <v>153597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="I13" s="7">
-        <v>37894</v>
+        <v>147293</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>121</v>
+        <v>449</v>
       </c>
       <c r="N13" s="7">
-        <v>80585</v>
+        <v>300889</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>860</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>570635</v>
+        <v>10306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>820</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7">
-        <v>551087</v>
+        <v>10064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1680</v>
+        <v>29</v>
       </c>
       <c r="N14" s="7">
-        <v>1121722</v>
+        <v>20370</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1979,55 +2197,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>247</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163903</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>231</v>
+      </c>
+      <c r="I15" s="7">
+        <v>157357</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>478</v>
+      </c>
+      <c r="N15" s="7">
+        <v>321259</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>860</v>
+      </c>
+      <c r="D16" s="7">
+        <v>570635</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>820</v>
+      </c>
+      <c r="I16" s="7">
+        <v>551087</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1680</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1121722</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7">
+        <v>42691</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>58</v>
+      </c>
+      <c r="I17" s="7">
+        <v>37894</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>121</v>
+      </c>
+      <c r="N17" s="7">
+        <v>80585</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>923</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>613326</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>878</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>588981</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1801</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1202307</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2040,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D4A25D-DF99-48A6-8A80-E43D6D037DE4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2B884-04BB-4914-A28C-0465BA461624}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2057,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2158,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7">
-        <v>11301</v>
+        <v>135453</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="I4" s="7">
-        <v>13428</v>
+        <v>131558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
-        <v>35</v>
+        <v>389</v>
       </c>
       <c r="N4" s="7">
-        <v>24729</v>
+        <v>267011</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>220433</v>
+        <v>6421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>307</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>203651</v>
+        <v>9940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>618</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>424084</v>
+        <v>16362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>327</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7">
-        <v>231734</v>
+        <v>141874</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2275,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>217079</v>
+        <v>141498</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>653</v>
+        <v>412</v>
       </c>
       <c r="N6" s="7">
-        <v>448813</v>
+        <v>283373</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2313,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>336</v>
       </c>
       <c r="D7" s="7">
-        <v>12892</v>
+        <v>243329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>14</v>
+        <v>307</v>
       </c>
       <c r="I7" s="7">
-        <v>10145</v>
+        <v>213139</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>643</v>
       </c>
       <c r="N7" s="7">
-        <v>23037</v>
+        <v>456469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>215732</v>
+        <v>12497</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>206740</v>
+        <v>8570</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>586</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7">
-        <v>422472</v>
+        <v>21066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="D9" s="7">
-        <v>228624</v>
+        <v>255826</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2430,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="I9" s="7">
-        <v>216885</v>
+        <v>221709</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2445,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="N9" s="7">
-        <v>445509</v>
+        <v>477535</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2468,49 +2847,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
-        <v>13807</v>
+        <v>139194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="I10" s="7">
-        <v>11625</v>
+        <v>142987</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>38</v>
+        <v>404</v>
       </c>
       <c r="N10" s="7">
-        <v>25432</v>
+        <v>282181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>349</v>
+        <v>14</v>
       </c>
       <c r="D11" s="7">
-        <v>237635</v>
+        <v>10104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>313</v>
+        <v>11</v>
       </c>
       <c r="I11" s="7">
-        <v>220425</v>
+        <v>8178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
-        <v>662</v>
+        <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>458060</v>
+        <v>18281</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>370</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>251442</v>
+        <v>149298</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2585,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>330</v>
+        <v>214</v>
       </c>
       <c r="I12" s="7">
-        <v>232050</v>
+        <v>151165</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2600,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>700</v>
+        <v>429</v>
       </c>
       <c r="N12" s="7">
-        <v>483492</v>
+        <v>300462</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2617,55 +2996,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>55</v>
+        <v>228</v>
       </c>
       <c r="D13" s="7">
-        <v>38000</v>
+        <v>155824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>35198</v>
+        <v>143132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>430</v>
       </c>
       <c r="N13" s="7">
-        <v>73198</v>
+        <v>298956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>957</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>673800</v>
+        <v>8978</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
-        <v>909</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>630816</v>
+        <v>8510</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1866</v>
+        <v>27</v>
       </c>
       <c r="N14" s="7">
-        <v>1304616</v>
+        <v>17488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,55 +3104,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>242</v>
+      </c>
+      <c r="D15" s="7">
+        <v>164802</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151642</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>457</v>
+      </c>
+      <c r="N15" s="7">
+        <v>316444</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>957</v>
+      </c>
+      <c r="D16" s="7">
+        <v>673800</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H16" s="7">
+        <v>909</v>
+      </c>
+      <c r="I16" s="7">
+        <v>630816</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1866</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1304616</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38000</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H17" s="7">
+        <v>50</v>
+      </c>
+      <c r="I17" s="7">
+        <v>35198</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" s="7">
+        <v>105</v>
+      </c>
+      <c r="N17" s="7">
+        <v>73198</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1012</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>711800</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>959</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>666014</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1971</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1377814</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2786,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2221310-0D8F-44CB-9450-EFAF37FA9133}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A44E7F-136D-4F49-85A6-5F788904186B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2803,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2904,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7">
-        <v>13661</v>
+        <v>107083</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="I4" s="7">
-        <v>12040</v>
+        <v>118388</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="N4" s="7">
-        <v>25702</v>
+        <v>225471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>185647</v>
+        <v>9079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>180787</v>
+        <v>8515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
-        <v>571</v>
+        <v>28</v>
       </c>
       <c r="N5" s="7">
-        <v>366433</v>
+        <v>17594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7">
-        <v>199308</v>
+        <v>116162</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3021,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>192827</v>
+        <v>126903</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3036,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>612</v>
+        <v>378</v>
       </c>
       <c r="N6" s="7">
-        <v>392135</v>
+        <v>243065</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3059,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>326</v>
       </c>
       <c r="D7" s="7">
-        <v>10934</v>
+        <v>222847</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="H7" s="7">
-        <v>20</v>
+        <v>291</v>
       </c>
       <c r="I7" s="7">
-        <v>12995</v>
+        <v>184533</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
-        <v>38</v>
+        <v>617</v>
       </c>
       <c r="N7" s="7">
-        <v>23929</v>
+        <v>407380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>213936</v>
+        <v>12143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>200538</v>
+        <v>10276</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="M8" s="7">
-        <v>614</v>
+        <v>36</v>
       </c>
       <c r="N8" s="7">
-        <v>414474</v>
+        <v>22419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="D9" s="7">
-        <v>224870</v>
+        <v>234990</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3176,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="I9" s="7">
-        <v>213533</v>
+        <v>194809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3191,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>438403</v>
+        <v>429799</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3214,49 +3754,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="D10" s="7">
-        <v>14805</v>
+        <v>160620</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>95</v>
+        <v>222</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>228</v>
       </c>
       <c r="I10" s="7">
-        <v>13443</v>
+        <v>159508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="N10" s="7">
-        <v>28248</v>
+        <v>320128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>230076</v>
+        <v>8727</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
-        <v>317</v>
+        <v>18</v>
       </c>
       <c r="I11" s="7">
-        <v>227011</v>
+        <v>11783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
-        <v>626</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>457087</v>
+        <v>20510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>244881</v>
+        <v>169347</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3331,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>336</v>
+        <v>246</v>
       </c>
       <c r="I12" s="7">
-        <v>240454</v>
+        <v>171291</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3346,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>481</v>
       </c>
       <c r="N12" s="7">
-        <v>485335</v>
+        <v>340638</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3363,55 +3903,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>39401</v>
+        <v>139109</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="7">
         <v>207</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59</v>
-      </c>
       <c r="I13" s="7">
-        <v>38478</v>
+        <v>145905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>119</v>
+        <v>394</v>
       </c>
       <c r="N13" s="7">
-        <v>77879</v>
+        <v>285015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>896</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>629659</v>
+        <v>9451</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>915</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>608336</v>
+        <v>7905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>1811</v>
+        <v>24</v>
       </c>
       <c r="N14" s="7">
-        <v>1237994</v>
+        <v>17356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,55 +4011,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>200</v>
+      </c>
+      <c r="D15" s="7">
+        <v>148560</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>218</v>
+      </c>
+      <c r="I15" s="7">
+        <v>153810</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>418</v>
+      </c>
+      <c r="N15" s="7">
+        <v>302371</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>896</v>
+      </c>
+      <c r="D16" s="7">
+        <v>629659</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="7">
+        <v>915</v>
+      </c>
+      <c r="I16" s="7">
+        <v>608336</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1811</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1237994</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>60</v>
+      </c>
+      <c r="D17" s="7">
+        <v>39401</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H17" s="7">
+        <v>59</v>
+      </c>
+      <c r="I17" s="7">
+        <v>38478</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="M17" s="7">
+        <v>119</v>
+      </c>
+      <c r="N17" s="7">
+        <v>77879</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>956</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>669060</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>974</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>646814</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1930</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1315873</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3532,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA39D56-D580-430A-B584-414E01051877}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FDC399-50C4-49BB-BD21-BF3488CF9786}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3549,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D4" s="7">
-        <v>1581</v>
+        <v>17277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>4817</v>
+        <v>13373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>274</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>6398</v>
+        <v>30649</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>25962</v>
+        <v>394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>17885</v>
+        <v>2958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>43847</v>
+        <v>3353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>27543</v>
+        <v>17671</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3767,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7">
-        <v>22702</v>
+        <v>16331</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3782,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>50245</v>
+        <v>34002</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3805,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>3305</v>
+        <v>28662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>71</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>3782</v>
+        <v>24456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>7088</v>
+        <v>53118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>34875</v>
+        <v>3952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>30954</v>
+        <v>3494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>65829</v>
+        <v>7446</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +4611,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="7">
-        <v>38180</v>
+        <v>32614</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3922,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I9" s="7">
-        <v>34736</v>
+        <v>27950</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3937,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>72917</v>
+        <v>60564</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3960,49 +4661,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>2905</v>
+        <v>34521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>6722</v>
+        <v>24113</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="M10" s="7">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>9627</v>
+        <v>58634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>57797</v>
+        <v>539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="I11" s="7">
-        <v>35762</v>
+        <v>6356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>125</v>
+        <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>93559</v>
+        <v>6895</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>60702</v>
+        <v>35060</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4077,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I12" s="7">
-        <v>42484</v>
+        <v>30469</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4092,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>103186</v>
+        <v>65529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4109,55 +4810,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>7791</v>
+        <v>38176</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>15322</v>
+        <v>22660</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>23113</v>
+        <v>60835</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>118634</v>
+        <v>2905</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>84601</v>
+        <v>2513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>203235</v>
+        <v>5418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,55 +4918,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7">
+        <v>41081</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25173</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>90</v>
+      </c>
+      <c r="N15" s="7">
+        <v>66253</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>176</v>
+      </c>
+      <c r="D16" s="7">
+        <v>118634</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="7">
+        <v>131</v>
+      </c>
+      <c r="I16" s="7">
+        <v>84601</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" s="7">
+        <v>307</v>
+      </c>
+      <c r="N16" s="7">
+        <v>203235</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7791</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H17" s="7">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7">
+        <v>15322</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M17" s="7">
+        <v>34</v>
+      </c>
+      <c r="N17" s="7">
+        <v>23113</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>126425</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>153</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>99923</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>341</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>226348</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13F62810-D468-4E6D-AEC5-657AAA986C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C41E3E9-5B77-45FE-AD9B-15AA7A712DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66AAA08B-23C8-4062-BC2A-8B0DCCB64B45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C60A031C-D6A5-45A5-9588-103622DCA8DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>89,31%</t>
   </si>
   <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>10,69%</t>
   </si>
   <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>93,67%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -197,55 +197,55 @@
     <t>94,31%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
   </si>
   <si>
     <t>93,87%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -254,598 +254,604 @@
     <t>93,71%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>93,6%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,18%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
     <t>10,76%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2015 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>4,22%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,38%</t>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
   </si>
   <si>
     <t>94,26%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>10,62%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>94,05%</t>
   </si>
   <si>
-    <t>92,32%</t>
+    <t>95,33%</t>
   </si>
   <si>
     <t>94,08%</t>
   </si>
   <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>4,67%</t>
   </si>
   <si>
     <t>5,92%</t>
   </si>
   <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
   </si>
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
@@ -854,7 +860,7 @@
     <t>97,77%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -863,19 +869,19 @@
     <t>81,89%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>90,14%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>2,23%</t>
@@ -884,196 +890,184 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>12,21%</t>
+    <t>11,52%</t>
   </si>
   <si>
     <t>18,11%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
   </si>
   <si>
     <t>9,86%</t>
   </si>
   <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>87,5%</t>
   </si>
   <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>74,44%</t>
   </si>
   <si>
     <t>87,7%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
   </si>
   <si>
     <t>12,5%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>25,56%</t>
   </si>
   <si>
     <t>12,3%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>91,16%</t>
+    <t>91,61%</t>
   </si>
   <si>
     <t>79,14%</t>
   </si>
   <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>56,73%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>8,84%</t>
+    <t>8,39%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>43,27%</t>
   </si>
   <si>
     <t>10,52%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
   </si>
   <si>
     <t>92,93%</t>
   </si>
   <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>76,34%</t>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>91,82%</t>
   </si>
   <si>
-    <t>84,96%</t>
+    <t>84,67%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>23,66%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>8,18%</t>
   </si>
   <si>
-    <t>15,04%</t>
+    <t>15,33%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>89,71%</t>
+    <t>89,74%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
+    <t>74,9%</t>
   </si>
   <si>
     <t>89,79%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>6,16%</t>
@@ -1082,25 +1076,19 @@
     <t>3,21%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE6F902-B307-428B-92D6-490EED83BCCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F61AAA-4009-4591-B72C-00AEC4779E37}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2271,13 +2259,13 @@
         <v>551087</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1680</v>
@@ -2289,10 +2277,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2322,13 +2310,13 @@
         <v>37894</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -2340,7 +2328,7 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>101</v>
@@ -2419,7 +2407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2B884-04BB-4914-A28C-0465BA461624}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F059B8-0E25-4803-9D85-6BEF3BE2D1FC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2546,10 +2534,10 @@
         <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>197</v>
@@ -2558,13 +2546,13 @@
         <v>131558</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
         <v>389</v>
@@ -2573,13 +2561,13 @@
         <v>267011</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2582,13 @@
         <v>6421</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2609,13 +2597,13 @@
         <v>9940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2624,13 +2612,13 @@
         <v>16362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2686,13 @@
         <v>243329</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
         <v>307</v>
@@ -2713,13 +2701,13 @@
         <v>213139</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>643</v>
@@ -2728,13 +2716,13 @@
         <v>456469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2737,13 @@
         <v>12497</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -2764,10 +2752,10 @@
         <v>8570</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>134</v>
@@ -2883,13 +2871,13 @@
         <v>282181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2892,13 @@
         <v>10104</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2919,28 +2907,28 @@
         <v>8178</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
       </c>
       <c r="N11" s="7">
-        <v>18281</v>
+        <v>18282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2970,7 @@
         <v>429</v>
       </c>
       <c r="N12" s="7">
-        <v>300462</v>
+        <v>300463</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3008,13 +2996,13 @@
         <v>155824</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>202</v>
@@ -3023,13 +3011,13 @@
         <v>143132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
         <v>430</v>
@@ -3038,13 +3026,13 @@
         <v>298956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3047,13 @@
         <v>8978</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -3074,13 +3062,13 @@
         <v>8510</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -3089,13 +3077,13 @@
         <v>17488</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3151,13 @@
         <v>673800</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H16" s="7">
         <v>909</v>
@@ -3178,13 +3166,13 @@
         <v>630816</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M16" s="7">
         <v>1866</v>
@@ -3193,13 +3181,13 @@
         <v>1304616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3202,13 @@
         <v>38000</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
         <v>50</v>
@@ -3229,13 +3217,13 @@
         <v>35198</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3244,13 +3232,13 @@
         <v>73198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A44E7F-136D-4F49-85A6-5F788904186B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF91676-13C8-435D-8FFC-E143343BF79A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3343,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3450,13 +3438,13 @@
         <v>107083</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
         <v>189</v>
@@ -3465,13 +3453,13 @@
         <v>118388</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -3480,13 +3468,13 @@
         <v>225471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3489,13 @@
         <v>9079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -3516,13 +3504,13 @@
         <v>8515</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -3531,13 +3519,13 @@
         <v>17594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3593,13 @@
         <v>222847</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H7" s="7">
         <v>291</v>
@@ -3620,13 +3608,13 @@
         <v>184533</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="M7" s="7">
         <v>617</v>
@@ -3635,13 +3623,13 @@
         <v>407380</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3644,13 @@
         <v>12143</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3671,10 +3659,10 @@
         <v>10276</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>217</v>
@@ -3775,13 +3763,13 @@
         <v>159508</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>450</v>
@@ -3790,10 +3778,10 @@
         <v>320128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>228</v>
@@ -3826,13 +3814,13 @@
         <v>11783</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -3841,13 +3829,13 @@
         <v>20510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,7 +3909,7 @@
         <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>207</v>
@@ -3930,13 +3918,13 @@
         <v>145905</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -3945,13 +3933,13 @@
         <v>285015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3954,13 @@
         <v>9451</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -3981,13 +3969,13 @@
         <v>7905</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -3996,13 +3984,13 @@
         <v>17356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4058,13 @@
         <v>629659</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>915</v>
@@ -4085,13 +4073,13 @@
         <v>608336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>1811</v>
@@ -4100,13 +4088,13 @@
         <v>1237994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4109,13 @@
         <v>39401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>59</v>
@@ -4136,13 +4124,13 @@
         <v>38478</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4151,13 +4139,13 @@
         <v>77879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,7 +4221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FDC399-50C4-49BB-BD21-BF3488CF9786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B562AE36-9272-4A7B-AB82-6F4FB24BEB61}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4250,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4357,13 +4345,13 @@
         <v>17277</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -4372,13 +4360,13 @@
         <v>13373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
@@ -4387,13 +4375,13 @@
         <v>30649</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4396,13 @@
         <v>394</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -4423,13 +4411,13 @@
         <v>2958</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -4438,13 +4426,13 @@
         <v>3353</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4500,13 @@
         <v>28662</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4527,13 +4515,13 @@
         <v>24456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -4542,13 +4530,13 @@
         <v>53118</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4551,13 @@
         <v>3952</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4578,10 +4566,10 @@
         <v>3494</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>302</v>
@@ -4673,7 +4661,7 @@
         <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -4688,7 +4676,7 @@
         <v>309</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -4697,13 +4685,13 @@
         <v>58634</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4706,13 @@
         <v>539</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -4733,13 +4721,13 @@
         <v>6356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -4748,13 +4736,13 @@
         <v>6895</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4810,13 @@
         <v>38176</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -4837,13 +4825,13 @@
         <v>22660</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -4852,13 +4840,13 @@
         <v>60835</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>328</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4861,13 @@
         <v>2905</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4888,10 +4876,10 @@
         <v>2513</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>333</v>
@@ -4906,7 +4894,7 @@
         <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>251</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>335</v>
@@ -4992,13 +4980,13 @@
         <v>84601</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>340</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>278</v>
       </c>
       <c r="M16" s="7">
         <v>307</v>
@@ -5007,13 +4995,13 @@
         <v>203235</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5016,13 @@
         <v>7791</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -5043,13 +5031,13 @@
         <v>15322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
@@ -5058,13 +5046,13 @@
         <v>23113</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP18_E_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C41E3E9-5B77-45FE-AD9B-15AA7A712DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58ED3F9A-A8E2-4F0A-A657-E83D0687C8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C60A031C-D6A5-45A5-9588-103622DCA8DA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{FB174613-944F-49E2-A49A-31996806958A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="364">
   <si>
     <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2007 (Tasa respuesta: 85,6%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1021 +74,1063 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
     <t>89,31%</t>
   </si>
   <si>
-    <t>82,87%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>96,01%</t>
   </si>
   <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>3,99%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2012 (Tasa respuesta: 93,9%)</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2016 (Tasa respuesta: 90,78%)</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>89,53%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
   </si>
   <si>
     <t>10,47%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>Menores según si hicieron la última consulta médica en la Seguridad Social en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F61AAA-4009-4591-B72C-00AEC4779E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29B0EB0-0D60-4E26-BEF7-476388F70074}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1618,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4" s="7">
-        <v>95593</v>
+        <v>95771</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1633,10 +1675,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="7">
-        <v>95771</v>
+        <v>95593</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1669,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>11440</v>
+        <v>4882</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1684,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>4882</v>
+        <v>11440</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1720,25 +1762,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>153</v>
+      </c>
+      <c r="D6" s="7">
+        <v>100653</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>161</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107033</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>153</v>
-      </c>
-      <c r="I6" s="7">
-        <v>100653</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1773,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D7" s="7">
-        <v>215021</v>
+        <v>211401</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1788,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="I7" s="7">
-        <v>211401</v>
+        <v>215021</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1824,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7">
-        <v>14527</v>
+        <v>16097</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1839,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>16097</v>
+        <v>14527</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1875,25 +1917,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>227498</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>346</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>229548</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>227498</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1928,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D10" s="7">
-        <v>106425</v>
+        <v>96623</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1943,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="I10" s="7">
-        <v>96623</v>
+        <v>106425</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1979,10 +2021,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>6417</v>
+        <v>6851</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1994,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="7">
-        <v>6851</v>
+        <v>6417</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2030,25 +2072,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>154</v>
+      </c>
+      <c r="D12" s="7">
+        <v>103474</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>169</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>112842</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>154</v>
-      </c>
-      <c r="I12" s="7">
-        <v>103474</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2083,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>153597</v>
+        <v>147293</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2098,10 +2140,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="I13" s="7">
-        <v>147293</v>
+        <v>153597</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2134,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>10306</v>
+        <v>10064</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2149,10 +2191,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" s="7">
-        <v>10064</v>
+        <v>10306</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2185,25 +2227,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>231</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157357</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>247</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>163903</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>231</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157357</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2238,10 +2280,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>860</v>
+        <v>820</v>
       </c>
       <c r="D16" s="7">
-        <v>570635</v>
+        <v>551087</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2253,19 +2295,19 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="I16" s="7">
-        <v>551087</v>
+        <v>570635</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1680</v>
@@ -2277,10 +2319,10 @@
         <v>38</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,34 +2331,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7">
+        <v>37894</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
         <v>63</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>42691</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>58</v>
-      </c>
-      <c r="I17" s="7">
-        <v>37894</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -2328,10 +2370,10 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2340,25 +2382,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>878</v>
+      </c>
+      <c r="D18" s="7">
+        <v>588981</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>923</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>613326</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>878</v>
-      </c>
-      <c r="I18" s="7">
-        <v>588981</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2387,7 +2429,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2407,7 +2449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F059B8-0E25-4803-9D85-6BEF3BE2D1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743F0663-F3D2-4BEA-8017-4DD2239C2A2D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2424,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2525,34 +2567,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>197</v>
+      </c>
+      <c r="D4" s="7">
+        <v>131558</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>192</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>135453</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>197</v>
-      </c>
-      <c r="I4" s="7">
-        <v>131558</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>389</v>
@@ -2561,13 +2603,13 @@
         <v>267011</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,34 +2618,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9940</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>6421</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9940</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -2612,13 +2654,13 @@
         <v>16362</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,25 +2669,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>141498</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>201</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>141874</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>141498</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2680,34 +2722,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>307</v>
+      </c>
+      <c r="D7" s="7">
+        <v>213139</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="7">
         <v>336</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>243329</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="7">
-        <v>307</v>
-      </c>
-      <c r="I7" s="7">
-        <v>213139</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
         <v>643</v>
@@ -2716,13 +2758,13 @@
         <v>456469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,34 +2773,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>8570</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
         <v>18</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>12497</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="7">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7">
-        <v>8570</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
         <v>30</v>
@@ -2767,13 +2809,13 @@
         <v>21066</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,25 +2824,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>319</v>
+      </c>
+      <c r="D9" s="7">
+        <v>221709</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>354</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>255826</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>319</v>
-      </c>
-      <c r="I9" s="7">
-        <v>221709</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2835,34 +2877,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>203</v>
+      </c>
+      <c r="D10" s="7">
+        <v>142987</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="7">
         <v>201</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>139194</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="7">
-        <v>203</v>
-      </c>
-      <c r="I10" s="7">
-        <v>142987</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>404</v>
@@ -2871,13 +2913,13 @@
         <v>282181</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,34 +2928,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>8178</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="7">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>10104</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8178</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -2922,13 +2964,13 @@
         <v>18282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,25 +2979,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>214</v>
+      </c>
+      <c r="D12" s="7">
+        <v>151165</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>215</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149298</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>214</v>
-      </c>
-      <c r="I12" s="7">
-        <v>151165</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2990,34 +3032,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>202</v>
+      </c>
+      <c r="D13" s="7">
+        <v>143132</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>228</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>155824</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="7">
-        <v>202</v>
-      </c>
-      <c r="I13" s="7">
-        <v>143132</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>430</v>
@@ -3026,13 +3068,13 @@
         <v>298956</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,34 +3083,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8510</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="7">
         <v>14</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>8978</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="7">
-        <v>13</v>
-      </c>
-      <c r="I14" s="7">
-        <v>8510</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -3077,13 +3119,13 @@
         <v>17488</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,25 +3134,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151642</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>164802</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151642</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3145,34 +3187,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>909</v>
+      </c>
+      <c r="D16" s="7">
+        <v>630816</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="7">
         <v>957</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>673800</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H16" s="7">
-        <v>909</v>
-      </c>
-      <c r="I16" s="7">
-        <v>630816</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>1866</v>
@@ -3181,13 +3223,13 @@
         <v>1304616</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,34 +3238,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="7">
+        <v>35198</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="7">
         <v>55</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>38000</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="7">
-        <v>50</v>
-      </c>
-      <c r="I17" s="7">
-        <v>35198</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -3232,13 +3274,13 @@
         <v>73198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,25 +3289,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>959</v>
+      </c>
+      <c r="D18" s="7">
+        <v>666014</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1012</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>711800</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>959</v>
-      </c>
-      <c r="I18" s="7">
-        <v>666014</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3294,7 +3336,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3314,7 +3356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF91676-13C8-435D-8FFC-E143343BF79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED5401F-30F0-43C3-A9C6-E7D78669D83A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3331,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3432,34 +3474,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>189</v>
+      </c>
+      <c r="D4" s="7">
+        <v>118388</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H4" s="7">
         <v>161</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>107083</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="7">
-        <v>189</v>
-      </c>
-      <c r="I4" s="7">
-        <v>118388</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>350</v>
@@ -3468,13 +3510,13 @@
         <v>225471</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,31 +3528,31 @@
         <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>9079</v>
+        <v>8515</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>8515</v>
+        <v>9079</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -3519,13 +3561,13 @@
         <v>17594</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,25 +3576,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>126903</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>175</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>116162</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>126903</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3587,34 +3629,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>291</v>
+      </c>
+      <c r="D7" s="7">
+        <v>184533</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="7">
         <v>326</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>222847</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" s="7">
-        <v>291</v>
-      </c>
-      <c r="I7" s="7">
-        <v>184533</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
         <v>617</v>
@@ -3623,13 +3665,13 @@
         <v>407380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,34 +3680,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>16</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10276</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="7">
         <v>20</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>12143</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="7">
-        <v>16</v>
-      </c>
-      <c r="I8" s="7">
-        <v>10276</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -3674,13 +3716,13 @@
         <v>22419</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,25 +3731,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>307</v>
+      </c>
+      <c r="D9" s="7">
+        <v>194809</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>346</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>234990</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>307</v>
-      </c>
-      <c r="I9" s="7">
-        <v>194809</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3742,34 +3784,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>228</v>
+      </c>
+      <c r="D10" s="7">
+        <v>159508</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="7">
         <v>222</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>160620</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H10" s="7">
-        <v>228</v>
-      </c>
-      <c r="I10" s="7">
-        <v>159508</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>450</v>
@@ -3778,13 +3820,13 @@
         <v>320128</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,34 +3835,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11783</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>8727</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H11" s="7">
-        <v>18</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11783</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>31</v>
@@ -3829,13 +3871,13 @@
         <v>20510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,25 +3886,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>246</v>
+      </c>
+      <c r="D12" s="7">
+        <v>171291</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>235</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>169347</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>246</v>
-      </c>
-      <c r="I12" s="7">
-        <v>171291</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3897,34 +3939,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>207</v>
+      </c>
+      <c r="D13" s="7">
+        <v>145905</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="7">
         <v>187</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>139109</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H13" s="7">
-        <v>207</v>
-      </c>
-      <c r="I13" s="7">
-        <v>145905</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -3933,13 +3975,13 @@
         <v>285015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,34 +3990,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7">
+        <v>7905</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
         <v>13</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>9451</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H14" s="7">
-        <v>11</v>
-      </c>
-      <c r="I14" s="7">
-        <v>7905</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -3984,13 +4026,13 @@
         <v>17356</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,25 +4041,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>218</v>
+      </c>
+      <c r="D15" s="7">
+        <v>153810</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>200</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148560</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>218</v>
-      </c>
-      <c r="I15" s="7">
-        <v>153810</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4052,34 +4094,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>915</v>
+      </c>
+      <c r="D16" s="7">
+        <v>608336</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H16" s="7">
         <v>896</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>629659</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H16" s="7">
-        <v>915</v>
-      </c>
-      <c r="I16" s="7">
-        <v>608336</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>1811</v>
@@ -4088,13 +4130,13 @@
         <v>1237994</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,34 +4145,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7">
+        <v>38478</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
         <v>60</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>39401</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H17" s="7">
-        <v>59</v>
-      </c>
-      <c r="I17" s="7">
-        <v>38478</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="M17" s="7">
         <v>119</v>
@@ -4139,13 +4181,13 @@
         <v>77879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,25 +4196,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>974</v>
+      </c>
+      <c r="D18" s="7">
+        <v>646814</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>956</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>669060</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>974</v>
-      </c>
-      <c r="I18" s="7">
-        <v>646814</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4201,7 +4243,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4221,7 +4263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B562AE36-9272-4A7B-AB82-6F4FB24BEB61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26C0E41-BF81-4E15-B08D-12AB7C61E9FB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4238,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4339,49 +4381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13318</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="7">
         <v>37</v>
       </c>
-      <c r="D4" s="7">
-        <v>17277</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H4" s="7">
-        <v>27</v>
-      </c>
       <c r="I4" s="7">
-        <v>13373</v>
+        <v>18024</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="M4" s="7">
         <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>30649</v>
+        <v>31342</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,49 +4432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2977</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
-        <v>394</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
       <c r="I5" s="7">
-        <v>2958</v>
+        <v>423</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>3353</v>
+        <v>3400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,25 +4483,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16295</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
-        <v>17671</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>32</v>
-      </c>
       <c r="I6" s="7">
-        <v>16331</v>
+        <v>18447</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4474,7 +4516,7 @@
         <v>70</v>
       </c>
       <c r="N6" s="7">
-        <v>34002</v>
+        <v>34742</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4494,49 +4536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>24708</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
         <v>47</v>
       </c>
-      <c r="D7" s="7">
-        <v>28662</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="7">
-        <v>37</v>
-      </c>
       <c r="I7" s="7">
-        <v>24456</v>
+        <v>29496</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>90</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>53118</v>
+        <v>54203</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,46 +4590,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>3952</v>
+        <v>3490</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>3494</v>
+        <v>4232</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
       </c>
       <c r="N8" s="7">
-        <v>7446</v>
+        <v>7722</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,25 +4638,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28198</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>53</v>
       </c>
-      <c r="D9" s="7">
-        <v>32614</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>43</v>
-      </c>
       <c r="I9" s="7">
-        <v>27950</v>
+        <v>33728</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4629,7 +4671,7 @@
         <v>96</v>
       </c>
       <c r="N9" s="7">
-        <v>60564</v>
+        <v>61925</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4649,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24075</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="7">
         <v>43</v>
       </c>
-      <c r="D10" s="7">
-        <v>34521</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="7">
-        <v>34</v>
-      </c>
       <c r="I10" s="7">
-        <v>24113</v>
+        <v>36336</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>15</v>
+        <v>287</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
       </c>
       <c r="N10" s="7">
-        <v>58634</v>
+        <v>60411</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7221</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="7">
-        <v>539</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H11" s="7">
-        <v>7</v>
-      </c>
       <c r="I11" s="7">
-        <v>6356</v>
+        <v>535</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
       </c>
       <c r="N11" s="7">
-        <v>6895</v>
+        <v>7756</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>317</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,25 +4793,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7">
+        <v>31296</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>44</v>
       </c>
-      <c r="D12" s="7">
-        <v>35060</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>41</v>
-      </c>
       <c r="I12" s="7">
-        <v>30469</v>
+        <v>36871</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4784,7 +4826,7 @@
         <v>85</v>
       </c>
       <c r="N12" s="7">
-        <v>65529</v>
+        <v>68167</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4804,49 +4846,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>33</v>
+      </c>
+      <c r="D13" s="7">
+        <v>22050</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H13" s="7">
         <v>49</v>
       </c>
-      <c r="D13" s="7">
-        <v>38176</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H13" s="7">
-        <v>33</v>
-      </c>
       <c r="I13" s="7">
-        <v>22660</v>
+        <v>39609</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
       </c>
       <c r="N13" s="7">
-        <v>60835</v>
+        <v>61659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>125</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,46 +4900,46 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>2905</v>
+        <v>2476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2513</v>
+        <v>2937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>5418</v>
+        <v>5412</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>133</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,25 +4948,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>53</v>
       </c>
-      <c r="D15" s="7">
-        <v>41081</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
       <c r="I15" s="7">
-        <v>25173</v>
+        <v>42546</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4939,7 +4981,7 @@
         <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>66253</v>
+        <v>67071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4959,49 +5001,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>131</v>
+      </c>
+      <c r="D16" s="7">
+        <v>84150</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="H16" s="7">
         <v>176</v>
       </c>
-      <c r="D16" s="7">
-        <v>118634</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H16" s="7">
-        <v>131</v>
-      </c>
       <c r="I16" s="7">
-        <v>84601</v>
+        <v>123465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>307</v>
       </c>
       <c r="N16" s="7">
-        <v>203235</v>
+        <v>207615</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,49 +5052,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>22</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16164</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
-        <v>7791</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H17" s="7">
-        <v>22</v>
-      </c>
       <c r="I17" s="7">
-        <v>15322</v>
+        <v>8127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>34</v>
       </c>
       <c r="N17" s="7">
-        <v>23113</v>
+        <v>24291</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,25 +5103,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>153</v>
+      </c>
+      <c r="D18" s="7">
+        <v>100314</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>188</v>
       </c>
-      <c r="D18" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>153</v>
-      </c>
       <c r="I18" s="7">
-        <v>99923</v>
+        <v>131592</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5094,7 +5136,7 @@
         <v>341</v>
       </c>
       <c r="N18" s="7">
-        <v>226348</v>
+        <v>231906</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5108,7 +5150,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
